--- a/STM32F407 era/SO-DIMM/COM-TC/Version 1/Pin count.xlsx
+++ b/STM32F407 era/SO-DIMM/COM-TC/Version 1/Pin count.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>pin type</t>
   </si>
@@ -89,6 +89,33 @@
   </si>
   <si>
     <t>susp travel</t>
+  </si>
+  <si>
+    <t>H-Bro</t>
+  </si>
+  <si>
+    <t>Throttle pot</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>IGN Cut</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>brake preassure</t>
+  </si>
+  <si>
+    <t>Clutch pot</t>
+  </si>
+  <si>
+    <t>Gyrometer</t>
+  </si>
+  <si>
+    <t>DAC</t>
   </si>
 </sst>
 </file>
@@ -424,7 +451,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,30 +685,39 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
       <c r="B19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
       <c r="B21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -691,69 +727,87 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,11 +871,11 @@
       </c>
       <c r="B33">
         <f>SUM(B6:B32)</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <f>SUM(C6:C32)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,11 +884,11 @@
       </c>
       <c r="B34">
         <f>(B2-B33)-C33</f>
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <f>B1-C33</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,7 +897,7 @@
       </c>
       <c r="D35">
         <f>B3-SUM(D6:D32)</f>
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
